--- a/docs-pages/vuepress/course-002/poemail/code/test_files/5-batch_send_mail_content_file/全班的邮箱.xlsx
+++ b/docs-pages/vuepress/course-002/poemail/code/test_files/5-batch_send_mail_content_file/全班的邮箱.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\code\gitee\python-office.com\docs-pages\vuepress\course-002\poemail\code\test_files\5-batch_send_mail_content_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\原创课程（程序员晚枫）\代码\test_files\5-batch_send_mail_content_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1B965A-67BA-49F7-8998-DC1D78C572EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB6FB96-19AE-4CB2-A287-AFBAA34F5E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3795" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
